--- a/data/n2v/tables/model-1200-1325-20230828-80.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-80.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
